--- a/Lab/Practica1/Graficas.xlsx
+++ b/Lab/Practica1/Graficas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fabioladeleon/Documents/Mau/U/SOYG1_1S25/Lab/Practica1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFEC83F0-5A1F-CD42-A27C-75B11399CBAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AF4AB9D-6693-8140-8814-AB3AE344F0DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" activeTab="3" xr2:uid="{BAF980C6-78E2-1847-8B63-3F655F096A07}"/>
   </bookViews>
@@ -19,9 +19,6 @@
     <sheet name="Ventas" sheetId="6" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v2.0" hidden="1">Productos!$B$10:$E$10</definedName>
-    <definedName name="_xlchart.v2.1" hidden="1">Productos!$B$11:$E$11</definedName>
-    <definedName name="_xlchart.v2.2" hidden="1">Productos!$B$12:$E$12</definedName>
     <definedName name="ExternalData_1" localSheetId="0" hidden="1">Productos!$B$2:$E$7</definedName>
     <definedName name="ExternalData_2" localSheetId="0" hidden="1">Productos!$B$9:$E$12</definedName>
   </definedNames>
@@ -400,7 +397,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-GT"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -436,27 +433,46 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:strRef>
-              <c:f>Productos!$C$3:$C$7</c:f>
-              <c:strCache>
+            <c:multiLvlStrRef>
+              <c:f>Productos!$C$3:$D$7</c:f>
+              <c:multiLvlStrCache>
                 <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>Teclados</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Tablets</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Teclados</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Monitores</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Tablets</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>626</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>922</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>819</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>632</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>171</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Teclados</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Tablets</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Teclados</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Monitores</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Tablets</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -764,11 +780,14 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Productos!$C$10</c:f>
+              <c:f>Productos!$C$10:$D$10</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>Auriculares</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>436</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -817,11 +836,14 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Productos!$C$11</c:f>
+              <c:f>Productos!$C$11:$D$11</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>Mouses</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>871</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -870,11 +892,14 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Productos!$C$12</c:f>
+              <c:f>Productos!$C$12:$D$12</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>Routers</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>399</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -7152,73 +7177,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{FE017C6A-3EB0-3940-B8FC-1F00747DAA3E}" name="PivotTable2" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1" rowHeaderCaption="Nombre" fieldListSortAscending="1">
-  <location ref="B9:C12" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="3">
-    <pivotField subtotalTop="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField axis="axisRow" subtotalTop="0" showAll="0" sortType="ascending" defaultSubtotal="0">
-      <items count="3">
-        <item x="1"/>
-        <item x="0"/>
-        <item x="2"/>
-      </items>
-      <autoSortScope>
-        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
-          <references count="1">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-          </references>
-        </pivotArea>
-      </autoSortScope>
-    </pivotField>
-    <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="1"/>
-  </rowFields>
-  <rowItems count="3">
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Ventas totales" fld="2" baseField="0" baseItem="0" numFmtId="166"/>
-  </dataFields>
-  <chartFormats count="1">
-    <chartFormat chart="0" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="0" showColHeaders="1" showRowStripes="1" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16 EnabledSubtotalsDefault="0" SubtotalsOnTopDefault="0"/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{23C75A8A-B1C9-C549-BFD0-F9C22C93AAD0}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1" rowHeaderCaption="Nombre" fieldListSortAscending="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{23C75A8A-B1C9-C549-BFD0-F9C22C93AAD0}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3" rowHeaderCaption="Nombre" fieldListSortAscending="1">
   <location ref="B2:C7" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField showAll="0"/>
@@ -7292,8 +7251,74 @@
 </pivotTableDefinition>
 </file>
 
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{FE017C6A-3EB0-3940-B8FC-1F00747DAA3E}" name="PivotTable2" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3" rowHeaderCaption="Nombre" fieldListSortAscending="1">
+  <location ref="B9:C12" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="3">
+    <pivotField subtotalTop="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField axis="axisRow" subtotalTop="0" showAll="0" sortType="ascending" defaultSubtotal="0">
+      <items count="3">
+        <item x="1"/>
+        <item x="0"/>
+        <item x="2"/>
+      </items>
+      <autoSortScope>
+        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
+          <references count="1">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </autoSortScope>
+    </pivotField>
+    <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="3">
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Ventas totales" fld="2" baseField="0" baseItem="0" numFmtId="166"/>
+  </dataFields>
+  <chartFormats count="1">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="0" showColHeaders="1" showRowStripes="1" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16 EnabledSubtotalsDefault="0" SubtotalsOnTopDefault="0"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{32ABA857-2485-D142-ADB6-62718A153438}" name="PivotTable3" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5" rowHeaderCaption="Marca_x000a_" fieldListSortAscending="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{32ABA857-2485-D142-ADB6-62718A153438}" name="PivotTable3" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="7" rowHeaderCaption="Marca_x000a_" fieldListSortAscending="1">
   <location ref="B2:C19" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField axis="axisRow" showAll="0">
@@ -7618,7 +7643,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{876634C5-1D0F-1B4F-9133-4E43D73DD02B}" name="PivotTable4" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3" rowHeaderCaption="Fecha" fieldListSortAscending="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{876634C5-1D0F-1B4F-9133-4E43D73DD02B}" name="PivotTable4" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5" rowHeaderCaption="Fecha" fieldListSortAscending="1">
   <location ref="B2:C15" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField axis="axisRow" showAll="0">
@@ -7691,8 +7716,26 @@
   <dataFields count="1">
     <dataField name="Total vendido" fld="1" baseField="0" baseItem="0" numFmtId="44"/>
   </dataFields>
-  <chartFormats count="1">
+  <chartFormats count="3">
     <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="3" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -8086,7 +8129,7 @@
   <dimension ref="B2:P19"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
